--- a/Database/Kato/Portugalia.xlsx
+++ b/Database/Kato/Portugalia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Facultate\Licenta\Baza date liceta\Licenta_covid19_UTCN\Database\Kato\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A7E9F9-3902-4861-8CCA-6B1777082B63}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A890133C-44CE-4113-8EA3-CB1BDB31B375}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:G470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A407" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C444"/>
+    <sheetView tabSelected="1" topLeftCell="A448" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10642,6 +10642,604 @@
         <v>1</v>
       </c>
     </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="1">
+        <v>44319</v>
+      </c>
+      <c r="B445" s="2">
+        <v>444</v>
+      </c>
+      <c r="C445" s="2">
+        <v>837457</v>
+      </c>
+      <c r="D445" s="2">
+        <v>180</v>
+      </c>
+      <c r="E445" s="2">
+        <v>23356</v>
+      </c>
+      <c r="F445" s="2">
+        <v>16977</v>
+      </c>
+      <c r="G445" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="1">
+        <v>44320</v>
+      </c>
+      <c r="B446" s="2">
+        <v>445</v>
+      </c>
+      <c r="C446" s="2">
+        <v>837715</v>
+      </c>
+      <c r="D446" s="2">
+        <v>258</v>
+      </c>
+      <c r="E446" s="2">
+        <v>22833</v>
+      </c>
+      <c r="F446" s="2">
+        <v>16981</v>
+      </c>
+      <c r="G446" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="1">
+        <v>44321</v>
+      </c>
+      <c r="B447" s="2">
+        <v>446</v>
+      </c>
+      <c r="C447" s="2">
+        <v>838102</v>
+      </c>
+      <c r="D447" s="2">
+        <v>387</v>
+      </c>
+      <c r="E447" s="2">
+        <v>22705</v>
+      </c>
+      <c r="F447" s="2">
+        <v>16983</v>
+      </c>
+      <c r="G447" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="1">
+        <v>44322</v>
+      </c>
+      <c r="B448" s="2">
+        <v>447</v>
+      </c>
+      <c r="C448" s="2">
+        <v>838475</v>
+      </c>
+      <c r="D448" s="2">
+        <v>373</v>
+      </c>
+      <c r="E448" s="2">
+        <v>22535</v>
+      </c>
+      <c r="F448" s="2">
+        <v>16988</v>
+      </c>
+      <c r="G448" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="1">
+        <v>44323</v>
+      </c>
+      <c r="B449" s="2">
+        <v>448</v>
+      </c>
+      <c r="C449" s="2">
+        <v>838852</v>
+      </c>
+      <c r="D449" s="2">
+        <v>377</v>
+      </c>
+      <c r="E449" s="2">
+        <v>22421</v>
+      </c>
+      <c r="F449" s="2">
+        <v>16989</v>
+      </c>
+      <c r="G449" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="1">
+        <v>44324</v>
+      </c>
+      <c r="B450" s="2">
+        <v>449</v>
+      </c>
+      <c r="C450" s="2">
+        <v>839258</v>
+      </c>
+      <c r="D450" s="2">
+        <v>406</v>
+      </c>
+      <c r="E450" s="2">
+        <v>22260</v>
+      </c>
+      <c r="F450" s="2">
+        <v>16991</v>
+      </c>
+      <c r="G450" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="1">
+        <v>44325</v>
+      </c>
+      <c r="B451" s="2">
+        <v>450</v>
+      </c>
+      <c r="C451" s="2">
+        <v>839582</v>
+      </c>
+      <c r="D451" s="2">
+        <v>324</v>
+      </c>
+      <c r="E451" s="2">
+        <v>22313</v>
+      </c>
+      <c r="F451" s="2">
+        <v>16992</v>
+      </c>
+      <c r="G451" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="1">
+        <v>44326</v>
+      </c>
+      <c r="B452" s="2">
+        <v>451</v>
+      </c>
+      <c r="C452" s="2">
+        <v>839740</v>
+      </c>
+      <c r="D452" s="2">
+        <v>158</v>
+      </c>
+      <c r="E452" s="2">
+        <v>22102</v>
+      </c>
+      <c r="F452" s="2">
+        <v>16993</v>
+      </c>
+      <c r="G452" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="1">
+        <v>44327</v>
+      </c>
+      <c r="B453" s="2">
+        <v>452</v>
+      </c>
+      <c r="C453" s="2">
+        <v>840008</v>
+      </c>
+      <c r="D453" s="2">
+        <v>268</v>
+      </c>
+      <c r="E453" s="2">
+        <v>21708</v>
+      </c>
+      <c r="F453" s="2">
+        <v>16994</v>
+      </c>
+      <c r="G453" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="1">
+        <v>44328</v>
+      </c>
+      <c r="B454" s="2">
+        <v>453</v>
+      </c>
+      <c r="C454" s="2">
+        <v>840493</v>
+      </c>
+      <c r="D454" s="2">
+        <v>485</v>
+      </c>
+      <c r="E454" s="2">
+        <v>21874</v>
+      </c>
+      <c r="F454" s="2">
+        <v>16998</v>
+      </c>
+      <c r="G454" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="1">
+        <v>44329</v>
+      </c>
+      <c r="B455" s="2">
+        <v>454</v>
+      </c>
+      <c r="C455" s="2">
+        <v>840929</v>
+      </c>
+      <c r="D455" s="2">
+        <v>436</v>
+      </c>
+      <c r="E455" s="2">
+        <v>21969</v>
+      </c>
+      <c r="F455" s="2">
+        <v>16999</v>
+      </c>
+      <c r="G455" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="1">
+        <v>44330</v>
+      </c>
+      <c r="B456" s="2">
+        <v>455</v>
+      </c>
+      <c r="C456" s="2">
+        <v>841379</v>
+      </c>
+      <c r="D456" s="2">
+        <v>450</v>
+      </c>
+      <c r="E456" s="2">
+        <v>22095</v>
+      </c>
+      <c r="F456" s="2">
+        <v>16999</v>
+      </c>
+      <c r="G456" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="1">
+        <v>44331</v>
+      </c>
+      <c r="B457" s="2">
+        <v>456</v>
+      </c>
+      <c r="C457" s="2">
+        <v>841848</v>
+      </c>
+      <c r="D457" s="2">
+        <v>469</v>
+      </c>
+      <c r="E457" s="2">
+        <v>22171</v>
+      </c>
+      <c r="F457" s="2">
+        <v>17006</v>
+      </c>
+      <c r="G457" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="1">
+        <v>44332</v>
+      </c>
+      <c r="B458" s="2">
+        <v>457</v>
+      </c>
+      <c r="C458" s="2">
+        <v>842182</v>
+      </c>
+      <c r="D458" s="2">
+        <v>334</v>
+      </c>
+      <c r="E458" s="2">
+        <v>22275</v>
+      </c>
+      <c r="F458" s="2">
+        <v>17007</v>
+      </c>
+      <c r="G458" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="1">
+        <v>44333</v>
+      </c>
+      <c r="B459" s="2">
+        <v>458</v>
+      </c>
+      <c r="C459" s="2">
+        <v>842381</v>
+      </c>
+      <c r="D459" s="2">
+        <v>199</v>
+      </c>
+      <c r="E459" s="2">
+        <v>22181</v>
+      </c>
+      <c r="F459" s="2">
+        <v>17009</v>
+      </c>
+      <c r="G459" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="1">
+        <v>44334</v>
+      </c>
+      <c r="B460" s="2">
+        <v>459</v>
+      </c>
+      <c r="C460" s="2">
+        <v>842767</v>
+      </c>
+      <c r="D460" s="2">
+        <v>386</v>
+      </c>
+      <c r="E460" s="2">
+        <v>21997</v>
+      </c>
+      <c r="F460" s="2">
+        <v>17011</v>
+      </c>
+      <c r="G460" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="1">
+        <v>44335</v>
+      </c>
+      <c r="B461" s="2">
+        <v>460</v>
+      </c>
+      <c r="C461" s="2">
+        <v>843278</v>
+      </c>
+      <c r="D461" s="2">
+        <v>511</v>
+      </c>
+      <c r="E461" s="2">
+        <v>22089</v>
+      </c>
+      <c r="F461" s="2">
+        <v>17013</v>
+      </c>
+      <c r="G461" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="1">
+        <v>44336</v>
+      </c>
+      <c r="B462" s="2">
+        <v>461</v>
+      </c>
+      <c r="C462" s="2">
+        <v>843729</v>
+      </c>
+      <c r="D462" s="2">
+        <v>451</v>
+      </c>
+      <c r="E462" s="2">
+        <v>22193</v>
+      </c>
+      <c r="F462" s="2">
+        <v>17014</v>
+      </c>
+      <c r="G462" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="1">
+        <v>44337</v>
+      </c>
+      <c r="B463" s="2">
+        <v>462</v>
+      </c>
+      <c r="C463" s="2">
+        <v>844288</v>
+      </c>
+      <c r="D463" s="2">
+        <v>559</v>
+      </c>
+      <c r="E463" s="2">
+        <v>22287</v>
+      </c>
+      <c r="F463" s="2">
+        <v>17017</v>
+      </c>
+      <c r="G463" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="1">
+        <v>44338</v>
+      </c>
+      <c r="B464" s="2">
+        <v>463</v>
+      </c>
+      <c r="C464" s="2">
+        <v>844811</v>
+      </c>
+      <c r="D464" s="2">
+        <v>523</v>
+      </c>
+      <c r="E464" s="2">
+        <v>22328</v>
+      </c>
+      <c r="F464" s="2">
+        <v>17017</v>
+      </c>
+      <c r="G464" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="1">
+        <v>44339</v>
+      </c>
+      <c r="B465" s="2">
+        <v>464</v>
+      </c>
+      <c r="C465" s="2">
+        <v>845224</v>
+      </c>
+      <c r="D465" s="2">
+        <v>413</v>
+      </c>
+      <c r="E465" s="2">
+        <v>22515</v>
+      </c>
+      <c r="F465" s="2">
+        <v>17017</v>
+      </c>
+      <c r="G465" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="1">
+        <v>44340</v>
+      </c>
+      <c r="B466" s="2">
+        <v>465</v>
+      </c>
+      <c r="C466" s="2">
+        <v>845465</v>
+      </c>
+      <c r="D466" s="2">
+        <v>241</v>
+      </c>
+      <c r="E466" s="2">
+        <v>22468</v>
+      </c>
+      <c r="F466" s="2">
+        <v>17018</v>
+      </c>
+      <c r="G466" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="1">
+        <v>44341</v>
+      </c>
+      <c r="B467" s="2">
+        <v>466</v>
+      </c>
+      <c r="C467" s="2">
+        <v>845840</v>
+      </c>
+      <c r="D467" s="2">
+        <v>375</v>
+      </c>
+      <c r="E467" s="2">
+        <v>22171</v>
+      </c>
+      <c r="F467" s="2">
+        <v>17021</v>
+      </c>
+      <c r="G467" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="1">
+        <v>44342</v>
+      </c>
+      <c r="B468" s="2">
+        <v>467</v>
+      </c>
+      <c r="C468" s="2">
+        <v>846434</v>
+      </c>
+      <c r="D468" s="2">
+        <v>594</v>
+      </c>
+      <c r="E468" s="2">
+        <v>22347</v>
+      </c>
+      <c r="F468" s="2">
+        <v>17022</v>
+      </c>
+      <c r="G468" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="1">
+        <v>44343</v>
+      </c>
+      <c r="B469" s="2">
+        <v>468</v>
+      </c>
+      <c r="C469" s="2">
+        <v>847006</v>
+      </c>
+      <c r="D469" s="2">
+        <v>572</v>
+      </c>
+      <c r="E469" s="2">
+        <v>22452</v>
+      </c>
+      <c r="F469" s="2">
+        <v>17022</v>
+      </c>
+      <c r="G469" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="1">
+        <v>44344</v>
+      </c>
+      <c r="B470" s="2">
+        <v>469</v>
+      </c>
+      <c r="C470" s="2">
+        <v>847604</v>
+      </c>
+      <c r="D470" s="2">
+        <v>598</v>
+      </c>
+      <c r="E470" s="2">
+        <v>22534</v>
+      </c>
+      <c r="F470" s="2">
+        <v>17023</v>
+      </c>
+      <c r="G470" s="2">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
